--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.256084435825</v>
+        <v>1078.966084436787</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9500000476837158</v>
+        <v>1.26800012588501</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.78487016907871e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1157.289999999038</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090577</v>
+        <v>22.17781999695737</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>19.07226046605155</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.38795072015898</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42.05666855417199</v>
+        <v>30.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4100000000599</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5050000000629</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0550000000603</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7250000000641</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.69000000002052</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.86000000001879</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.13000000001921</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87500000002001</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000002088</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>197.0099999999965</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>195.025000000005</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>192.9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>192.2299999999886</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>190.9899999999925</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000002154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.20500000001994</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.19000000002052</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000001834</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000002095</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.294999999949</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.9099999999469</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.0849999999626</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>113.2949999999081</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>121.65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>123.55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>125.909999999906</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>126.0849999999217</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>197.0099999999484</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>195.0249999999569</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.9</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>192.2299999999405</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>190.9899999999444</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.29499999990696</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21.65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23.55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.90999999990493</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>26.08499999992057</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.00999999994752</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>95.02499999995604</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>92.90000000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>92.22999999993959</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>90.98999999994351</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
